--- a/doc/2020-5-3自测问题.xlsx
+++ b/doc/2020-5-3自测问题.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="课程新增" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -18,12 +18,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,7 +35,53 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -47,30 +93,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,99 +155,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +394,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,39 +453,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -469,17 +468,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,148 +481,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -703,19 +696,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>198755</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>404495</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -728,8 +721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12702540" cy="6080760"/>
+          <a:off x="198755" y="754380"/>
+          <a:ext cx="12550140" cy="4236720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,6 +735,482 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3437255" cy="490855"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="369570" y="413385"/>
+          <a:ext cx="3437255" cy="490855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>课程新增</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6035040"/>
+          <a:ext cx="12550140" cy="6758940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>608330</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3433445" cy="501650"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4928870" y="6873240"/>
+          <a:ext cx="3433445" cy="501650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>课程报名</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>137795</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3433445" cy="1350645"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11247755" y="11307445"/>
+          <a:ext cx="3433445" cy="1350645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>课程报名点提交时候，当金额校验不通过时，异常信息没有捕获</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1034,8 +1503,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="W44" sqref="W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/doc/2020-5-3自测问题.xlsx
+++ b/doc/2020-5-3自测问题.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="课程新增" sheetId="1" r:id="rId1"/>
+    <sheet name="2020-5-3" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -33,6 +33,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -40,7 +47,114 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -54,14 +168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -69,112 +175,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,55 +185,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,127 +341,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,17 +376,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -410,6 +399,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,17 +442,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,15 +476,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,145 +484,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,7 +783,6 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
-              <a:ln/>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -798,7 +797,6 @@
             <a:t>课程新增</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
-            <a:ln/>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1211,6 +1209,225 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>439420</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3433445" cy="516890"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7228840" y="9455785"/>
+          <a:ext cx="3433445" cy="516890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>不可编辑，不展示都行</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>613410</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="148590" y="13380720"/>
+          <a:ext cx="12192000" cy="3444240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1503,8 +1720,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="AA91" sqref="AA91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
